--- a/dist/Icraft_Icore_Metrics_V3.6.2_subtotal.xlsx
+++ b/dist/Icraft_Icore_Metrics_V3.6.2_subtotal.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="21011" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cv-cls" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,25 @@
     <sheet name="cv-seg_mIoU" sheetId="8" r:id="rId8"/>
     <sheet name="cv-sod" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="144">
   <si>
     <t>Series</t>
   </si>
@@ -72,24 +85,24 @@
     <t>SeResNet</t>
   </si>
   <si>
+    <t>SeResNet34</t>
+  </si>
+  <si>
+    <t>1*3*224*224</t>
+  </si>
+  <si>
+    <t>kld-pt</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
     <t>ShuffleNet</t>
   </si>
   <si>
-    <t>SeResNet34</t>
-  </si>
-  <si>
-    <t>1*3*224*224</t>
-  </si>
-  <si>
-    <t>kld-pt</t>
-  </si>
-  <si>
     <t>kld-pc</t>
   </si>
   <si>
-    <t>Flower</t>
-  </si>
-  <si>
     <t>imagenet2012val</t>
   </si>
   <si>
@@ -108,132 +121,147 @@
     <t>detr</t>
   </si>
   <si>
+    <t>1*3*640*640</t>
+  </si>
+  <si>
+    <t>coco2017val</t>
+  </si>
+  <si>
     <t>ppyoloe</t>
   </si>
   <si>
+    <t>ppyoloe_plus_crn_s_80e_coco</t>
+  </si>
+  <si>
     <t>ppyolov5</t>
   </si>
   <si>
+    <t>ppyolov5s</t>
+  </si>
+  <si>
     <t>yolov10</t>
   </si>
   <si>
+    <t>yolov10_b</t>
+  </si>
+  <si>
+    <t>yolov10_l</t>
+  </si>
+  <si>
+    <t>yolov10_m</t>
+  </si>
+  <si>
+    <t>yolov10_n</t>
+  </si>
+  <si>
+    <t>yolov10_s</t>
+  </si>
+  <si>
+    <t>yolov10_x</t>
+  </si>
+  <si>
     <t>yolov5_7.0</t>
   </si>
   <si>
+    <t>yolov5_l</t>
+  </si>
+  <si>
+    <t>yolov5_m</t>
+  </si>
+  <si>
+    <t>yolov5_n</t>
+  </si>
+  <si>
+    <t>yolov5_s</t>
+  </si>
+  <si>
+    <t>yolov5_x</t>
+  </si>
+  <si>
     <t>yolov5_obb</t>
   </si>
   <si>
+    <t>yolov5m_obb</t>
+  </si>
+  <si>
+    <t>1*3*1024*1024</t>
+  </si>
+  <si>
+    <t>DOTA-v1.5</t>
+  </si>
+  <si>
     <t>yolov5s6</t>
   </si>
   <si>
+    <t>1*3*1280*1280</t>
+  </si>
+  <si>
     <t>yolov6</t>
   </si>
   <si>
+    <t>yolov6s_v2reopt</t>
+  </si>
+  <si>
     <t>yolov7</t>
   </si>
   <si>
+    <t>yolov7-3h_ori</t>
+  </si>
+  <si>
+    <t>yolov7-3h_tiny</t>
+  </si>
+  <si>
+    <t>yolov7-3h_x</t>
+  </si>
+  <si>
+    <t>yolov7-4h_d6</t>
+  </si>
+  <si>
+    <t>yolov7-4h_e6</t>
+  </si>
+  <si>
+    <t>yolov7-4h_e6e</t>
+  </si>
+  <si>
+    <t>yolov7-4h_w6</t>
+  </si>
+  <si>
     <t>yolov8</t>
   </si>
   <si>
+    <t>yolov8_l</t>
+  </si>
+  <si>
+    <t>yolov8_m</t>
+  </si>
+  <si>
+    <t>yolov8_n</t>
+  </si>
+  <si>
+    <t>yolov8_s</t>
+  </si>
+  <si>
+    <t>yolov8_x</t>
+  </si>
+  <si>
     <t>yolov9</t>
   </si>
   <si>
+    <t>yolov9_c</t>
+  </si>
+  <si>
+    <t>yolov9_m</t>
+  </si>
+  <si>
+    <t>yolov9_s</t>
+  </si>
+  <si>
+    <t>yolov9_t</t>
+  </si>
+  <si>
     <t>yolox</t>
   </si>
   <si>
-    <t>ppyoloe_plus_crn_s_80e_coco</t>
-  </si>
-  <si>
-    <t>ppyolov5s</t>
-  </si>
-  <si>
-    <t>yolov10_b</t>
-  </si>
-  <si>
-    <t>yolov10_l</t>
-  </si>
-  <si>
-    <t>yolov10_m</t>
-  </si>
-  <si>
-    <t>yolov10_n</t>
-  </si>
-  <si>
-    <t>yolov10_s</t>
-  </si>
-  <si>
-    <t>yolov10_x</t>
-  </si>
-  <si>
-    <t>yolov5_l</t>
-  </si>
-  <si>
-    <t>yolov5_m</t>
-  </si>
-  <si>
-    <t>yolov5_n</t>
-  </si>
-  <si>
-    <t>yolov5_s</t>
-  </si>
-  <si>
-    <t>yolov5_x</t>
-  </si>
-  <si>
-    <t>yolov5m_obb</t>
-  </si>
-  <si>
-    <t>yolov6s_v2reopt</t>
-  </si>
-  <si>
-    <t>yolov7-3h_ori</t>
-  </si>
-  <si>
-    <t>yolov7-3h_tiny</t>
-  </si>
-  <si>
-    <t>yolov7-3h_x</t>
-  </si>
-  <si>
-    <t>yolov7-4h_d6</t>
-  </si>
-  <si>
-    <t>yolov7-4h_e6</t>
-  </si>
-  <si>
-    <t>yolov7-4h_e6e</t>
-  </si>
-  <si>
-    <t>yolov7-4h_w6</t>
-  </si>
-  <si>
-    <t>yolov8_l</t>
-  </si>
-  <si>
-    <t>yolov8_m</t>
-  </si>
-  <si>
-    <t>yolov8_n</t>
-  </si>
-  <si>
-    <t>yolov8_s</t>
-  </si>
-  <si>
-    <t>yolov8_x</t>
-  </si>
-  <si>
-    <t>yolov9_c</t>
-  </si>
-  <si>
-    <t>yolov9_m</t>
-  </si>
-  <si>
-    <t>yolov9_s</t>
-  </si>
-  <si>
-    <t>yolov9_t</t>
-  </si>
-  <si>
     <t>yolox_l</t>
   </si>
   <si>
@@ -246,27 +274,12 @@
     <t>yolox_tiny</t>
   </si>
   <si>
+    <t>1*3*416*416</t>
+  </si>
+  <si>
     <t>yolox_x</t>
   </si>
   <si>
-    <t>1*3*640*640</t>
-  </si>
-  <si>
-    <t>1*3*1024*1024</t>
-  </si>
-  <si>
-    <t>1*3*1280*1280</t>
-  </si>
-  <si>
-    <t>1*3*416*416</t>
-  </si>
-  <si>
-    <t>coco2017val</t>
-  </si>
-  <si>
-    <t>DOTA-v1.5</t>
-  </si>
-  <si>
     <t>kpts_mAP50-90_g</t>
   </si>
   <si>
@@ -279,36 +292,36 @@
     <t>kpts_mAP50_p</t>
   </si>
   <si>
+    <t>pixel_error_g</t>
+  </si>
+  <si>
     <t>yolov7_pose</t>
   </si>
   <si>
+    <t>yolov7-w6-pose</t>
+  </si>
+  <si>
     <t>yolov8_pose</t>
   </si>
   <si>
-    <t>yolov7-w6-pose</t>
-  </si>
-  <si>
     <t>yolov8s-pose</t>
   </si>
   <si>
-    <t>pixel_error_g</t>
+    <t>HRNet</t>
+  </si>
+  <si>
+    <t>HRNet-kpt</t>
+  </si>
+  <si>
+    <t>null-pt</t>
+  </si>
+  <si>
+    <t>DCS</t>
   </si>
   <si>
     <t>pixel_error_p</t>
   </si>
   <si>
-    <t>HRNet</t>
-  </si>
-  <si>
-    <t>HRNet-kpt</t>
-  </si>
-  <si>
-    <t>null-pt</t>
-  </si>
-  <si>
-    <t>DCS</t>
-  </si>
-  <si>
     <t>MOTA_g</t>
   </si>
   <si>
@@ -369,12 +382,12 @@
     <t>yolov5_seg</t>
   </si>
   <si>
+    <t>yolov5s_seg</t>
+  </si>
+  <si>
     <t>yolov8_seg</t>
   </si>
   <si>
-    <t>yolov5s_seg</t>
-  </si>
-  <si>
     <t>yolov8s-seg</t>
   </si>
   <si>
@@ -405,25 +418,25 @@
     <t>DDRNet</t>
   </si>
   <si>
+    <t>1*3*1024*2048</t>
+  </si>
+  <si>
+    <t>cityscapes</t>
+  </si>
+  <si>
     <t>MMPSPNet</t>
   </si>
   <si>
+    <t>mmpspnet</t>
+  </si>
+  <si>
     <t>deeplabv3plus</t>
   </si>
   <si>
-    <t>mmpspnet</t>
-  </si>
-  <si>
     <t>deeplab-resnet</t>
   </si>
   <si>
-    <t>1*3*1024*2048</t>
-  </si>
-  <si>
     <t>1*3*513*513</t>
-  </si>
-  <si>
-    <t>cityscapes</t>
   </si>
   <si>
     <t>voc2012val</t>
@@ -459,42 +472,382 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -515,43 +868,338 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="176" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFF6600"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="176" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -834,30 +1482,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.712962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5740740740741" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="15" width="8.71296296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -907,15 +1557,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
@@ -933,13 +1583,13 @@
         <v>3.677129984</v>
       </c>
       <c r="I2" s="2">
-        <v>0.1167700159999998</v>
+        <v>0.116770016</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="3">
         <v>0.946866485013624</v>
@@ -948,15 +1598,15 @@
         <v>0.955040871934605</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -974,13 +1624,13 @@
         <v>7.263700008</v>
       </c>
       <c r="I3" s="2">
-        <v>0.1182599920000005</v>
+        <v>0.118259992</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L3" s="3">
         <v>0.944141689373297</v>
@@ -991,13 +1641,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
@@ -1015,10 +1665,10 @@
         <v>4.106369972</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1160600279999997</v>
+        <v>0.116060028</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
@@ -1030,7 +1680,7 @@
         <v>0.8746</v>
       </c>
       <c r="N4" s="3">
-        <v>0.6840000000000001</v>
+        <v>0.684</v>
       </c>
       <c r="O4" s="3">
         <v>0.881</v>
@@ -1038,13 +1688,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>16</v>
@@ -1062,10 +1712,10 @@
         <v>3.741334915</v>
       </c>
       <c r="I5" s="2">
-        <v>0.1176060850000002</v>
+        <v>0.117606085</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -1077,7 +1727,7 @@
         <v>0.8794</v>
       </c>
       <c r="N5" s="3">
-        <v>0.6840000000000001</v>
+        <v>0.684</v>
       </c>
       <c r="O5" s="3">
         <v>0.881</v>
@@ -1086,39 +1736,43 @@
   </sheetData>
   <conditionalFormatting sqref="G2:I5">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I2 &gt;= 5</formula>
+      <formula>$I2&gt;=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(($I2 &gt;= 1), ($I2 &lt; 5))</formula>
+      <formula>AND(($I2&gt;=1),($I2&lt;5))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.287037037037" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.712962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5740740740741" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.712962962963" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.712962962963" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.712962962963" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.712962962963" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1176,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
@@ -1197,10 +1851,10 @@
         <v>3.3792616</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3">
         <v>0.143</v>
@@ -1212,7 +1866,7 @@
         <v>0.365</v>
       </c>
       <c r="O2" s="3">
-        <v>0.5580000000000001</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1223,7 +1877,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -1235,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>95.60869099999999</v>
+        <v>95.608691</v>
       </c>
       <c r="H3" s="2">
         <v>92.23160695</v>
       </c>
       <c r="I3" s="2">
-        <v>3.377084049999993</v>
+        <v>3.37708404999999</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3">
         <v>0.343</v>
@@ -1259,18 +1913,18 @@
         <v>0.365</v>
       </c>
       <c r="O3" s="3">
-        <v>0.5580000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
@@ -1288,13 +1942,13 @@
         <v>22.24806404</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1452859600000025</v>
+        <v>0.145285960000002</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L4" s="3">
         <v>0.385</v>
@@ -1303,15 +1957,15 @@
         <v>0.552</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>16</v>
@@ -1329,13 +1983,13 @@
         <v>41.32139206</v>
       </c>
       <c r="I5" s="2">
-        <v>0.1465679399999971</v>
+        <v>0.146567939999997</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3">
         <v>0.411</v>
@@ -1346,13 +2000,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -1370,36 +2024,36 @@
         <v>5.781014919</v>
       </c>
       <c r="I6" s="2">
-        <v>0.1405750809999997</v>
+        <v>0.140575081</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L6" s="3">
         <v>0.345</v>
       </c>
       <c r="M6" s="3">
-        <v>0.5590000000000001</v>
+        <v>0.559</v>
       </c>
       <c r="N6" s="3">
         <v>0.366</v>
       </c>
       <c r="O6" s="3">
-        <v>0.5659999999999999</v>
+        <v>0.566</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>16</v>
@@ -1417,36 +2071,36 @@
         <v>13.3302002</v>
       </c>
       <c r="I7" s="2">
-        <v>0.1403598000000006</v>
+        <v>0.140359800000001</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L7" s="3">
         <v>0.365</v>
       </c>
       <c r="M7" s="3">
-        <v>0.5669999999999999</v>
+        <v>0.567</v>
       </c>
       <c r="N7" s="3">
         <v>0.366</v>
       </c>
       <c r="O7" s="3">
-        <v>0.5659999999999999</v>
+        <v>0.566</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -1464,19 +2118,19 @@
         <v>23.30289507</v>
       </c>
       <c r="I8" s="2">
-        <v>0.2497369299999974</v>
+        <v>0.249736929999997</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L8" s="3">
         <v>0.504</v>
       </c>
       <c r="M8" s="3">
-        <v>0.6820000000000001</v>
+        <v>0.682</v>
       </c>
       <c r="N8" s="3">
         <v>0.524</v>
@@ -1487,13 +2141,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>16</v>
@@ -1511,19 +2165,19 @@
         <v>54.21438952</v>
       </c>
       <c r="I9" s="2">
-        <v>0.2525864800000051</v>
+        <v>0.252586480000005</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L9" s="3">
         <v>0.507</v>
       </c>
       <c r="M9" s="3">
-        <v>0.6860000000000001</v>
+        <v>0.686</v>
       </c>
       <c r="N9" s="3">
         <v>0.524</v>
@@ -1534,13 +2188,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -1561,16 +2215,16 @@
         <v>0.248439359999999</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L10" s="3">
         <v>0.508</v>
       </c>
       <c r="M10" s="3">
-        <v>0.6860000000000001</v>
+        <v>0.686</v>
       </c>
       <c r="N10" s="3">
         <v>0.529</v>
@@ -1581,13 +2235,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>16</v>
@@ -1605,19 +2259,19 @@
         <v>65.99783698</v>
       </c>
       <c r="I11" s="2">
-        <v>0.2454630200000025</v>
+        <v>0.245463020000003</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L11" s="3">
         <v>0.51</v>
       </c>
       <c r="M11" s="3">
-        <v>0.6879999999999999</v>
+        <v>0.688</v>
       </c>
       <c r="N11" s="3">
         <v>0.529</v>
@@ -1628,13 +2282,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
@@ -1652,13 +2306,13 @@
         <v>18.58646973</v>
       </c>
       <c r="I12" s="2">
-        <v>0.2430772700000006</v>
+        <v>0.243077270000001</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L12" s="3">
         <v>0.486</v>
@@ -1670,18 +2324,18 @@
         <v>0.508</v>
       </c>
       <c r="O12" s="3">
-        <v>0.6830000000000001</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>16</v>
@@ -1699,13 +2353,13 @@
         <v>41.14024016</v>
       </c>
       <c r="I13" s="2">
-        <v>0.2473968400000004</v>
+        <v>0.24739684</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L13" s="3">
         <v>0.491</v>
@@ -1717,18 +2371,18 @@
         <v>0.508</v>
       </c>
       <c r="O13" s="3">
-        <v>0.6830000000000001</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
@@ -1746,13 +2400,13 @@
         <v>4.755254939</v>
       </c>
       <c r="I14" s="2">
-        <v>0.2390930609999993</v>
+        <v>0.239093060999999</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L14" s="3">
         <v>0.363</v>
@@ -1769,13 +2423,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
         <v>16</v>
@@ -1796,10 +2450,10 @@
         <v>0.277800118</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L15" s="3">
         <v>0.373</v>
@@ -1816,13 +2470,13 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>8</v>
@@ -1834,19 +2488,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>9.185696999999999</v>
+        <v>9.185697</v>
       </c>
       <c r="H16" s="2">
-        <v>8.940710365999999</v>
+        <v>8.940710366</v>
       </c>
       <c r="I16" s="2">
         <v>0.244986634</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L16" s="3">
         <v>0.447</v>
@@ -1863,13 +2517,13 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>16</v>
@@ -1887,13 +2541,13 @@
         <v>20.61709432</v>
       </c>
       <c r="I17" s="2">
-        <v>0.2458276800000014</v>
+        <v>0.245827680000001</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L17" s="3">
         <v>0.451</v>
@@ -1910,13 +2564,13 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -1934,13 +2588,13 @@
         <v>40.33616473</v>
       </c>
       <c r="I18" s="2">
-        <v>0.2473902699999968</v>
+        <v>0.247390269999997</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L18" s="3">
         <v>0.522</v>
@@ -1957,13 +2611,13 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1">
         <v>16</v>
@@ -1984,10 +2638,10 @@
         <v>0.246937410000001</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L19" s="3">
         <v>0.526</v>
@@ -2004,13 +2658,13 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1">
         <v>8</v>
@@ -2028,13 +2682,13 @@
         <v>21.25705528</v>
       </c>
       <c r="I20" s="2">
-        <v>0.1374637199999995</v>
+        <v>0.13746372</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L20" s="3">
         <v>0.45</v>
@@ -2051,13 +2705,13 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>16</v>
@@ -2078,10 +2732,10 @@
         <v>0.137261009999996</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L21" s="3">
         <v>0.475</v>
@@ -2098,13 +2752,13 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
         <v>8</v>
@@ -2122,13 +2776,13 @@
         <v>13.34228516</v>
       </c>
       <c r="I22" s="2">
-        <v>0.1392928400000013</v>
+        <v>0.139292840000001</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L22" s="3">
         <v>0.417</v>
@@ -2145,13 +2799,13 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
         <v>16</v>
@@ -2169,13 +2823,13 @@
         <v>29.34421921</v>
       </c>
       <c r="I23" s="2">
-        <v>0.1391097900000027</v>
+        <v>0.139109790000003</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L23" s="3">
         <v>0.436</v>
@@ -2192,13 +2846,13 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -2216,13 +2870,13 @@
         <v>2.788105011</v>
       </c>
       <c r="I24" s="2">
-        <v>0.1373509890000002</v>
+        <v>0.137350989</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L24" s="3">
         <v>0.255</v>
@@ -2239,13 +2893,13 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
         <v>16</v>
@@ -2263,13 +2917,13 @@
         <v>5.826240063</v>
       </c>
       <c r="I25" s="2">
-        <v>0.1378329369999998</v>
+        <v>0.137832937</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L25" s="3">
         <v>0.272</v>
@@ -2286,13 +2940,13 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
@@ -2310,36 +2964,36 @@
         <v>5.799244881</v>
       </c>
       <c r="I26" s="2">
-        <v>0.1393371190000003</v>
+        <v>0.139337119</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L26" s="3">
         <v>0.345</v>
       </c>
       <c r="M26" s="3">
-        <v>0.5590000000000001</v>
+        <v>0.559</v>
       </c>
       <c r="N26" s="3">
         <v>0.366</v>
       </c>
       <c r="O26" s="3">
-        <v>0.5669999999999999</v>
+        <v>0.567</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1">
         <v>16</v>
@@ -2357,36 +3011,36 @@
         <v>13.28264046</v>
       </c>
       <c r="I27" s="2">
-        <v>0.1401175400000003</v>
+        <v>0.14011754</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L27" s="3">
         <v>0.365</v>
       </c>
       <c r="M27" s="3">
-        <v>0.5669999999999999</v>
+        <v>0.567</v>
       </c>
       <c r="N27" s="3">
         <v>0.366</v>
       </c>
       <c r="O27" s="3">
-        <v>0.5669999999999999</v>
+        <v>0.567</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
@@ -2404,36 +3058,36 @@
         <v>38.21608734</v>
       </c>
       <c r="I28" s="2">
-        <v>0.1399526599999987</v>
+        <v>0.139952659999999</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L28" s="3">
         <v>0.47</v>
       </c>
       <c r="M28" s="3">
-        <v>0.6820000000000001</v>
+        <v>0.682</v>
       </c>
       <c r="N28" s="3">
         <v>0.496</v>
       </c>
       <c r="O28" s="3">
-        <v>0.6830000000000001</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1">
         <v>16</v>
@@ -2445,42 +3099,42 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>90.82075399999999</v>
+        <v>90.820754</v>
       </c>
       <c r="H29" s="2">
         <v>90.68323517</v>
       </c>
       <c r="I29" s="2">
-        <v>0.1375188299999905</v>
+        <v>0.13751882999999</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L29" s="3">
         <v>0.492</v>
       </c>
       <c r="M29" s="3">
-        <v>0.6850000000000001</v>
+        <v>0.685</v>
       </c>
       <c r="N29" s="3">
         <v>0.496</v>
       </c>
       <c r="O29" s="3">
-        <v>0.6830000000000001</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
@@ -2498,13 +3152,13 @@
         <v>37.9869194</v>
       </c>
       <c r="I30" s="2">
-        <v>0.1390516000000019</v>
+        <v>0.139051600000002</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L30" s="3">
         <v>0.3939</v>
@@ -2521,13 +3175,13 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1">
         <v>16</v>
@@ -2542,16 +3196,16 @@
         <v>81.110051</v>
       </c>
       <c r="H31" s="2">
-        <v>80.97193909000001</v>
+        <v>80.97193909</v>
       </c>
       <c r="I31" s="2">
-        <v>0.1381119099999921</v>
+        <v>0.138111909999992</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L31" s="3">
         <v>0.4073</v>
@@ -2568,13 +3222,13 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1">
         <v>8</v>
@@ -2592,13 +3246,13 @@
         <v>27.6808033</v>
       </c>
       <c r="I32" s="2">
-        <v>0.1585366999999991</v>
+        <v>0.158536699999999</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L32" s="3">
         <v>0.406</v>
@@ -2615,13 +3269,13 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1">
         <v>16</v>
@@ -2639,13 +3293,13 @@
         <v>59.35215378</v>
       </c>
       <c r="I33" s="2">
-        <v>0.1986062199999949</v>
+        <v>0.198606219999995</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L33" s="3">
         <v>0.428</v>
@@ -2660,15 +3314,15 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1">
         <v>8</v>
@@ -2686,13 +3340,13 @@
         <v>5.73132515</v>
       </c>
       <c r="I34" s="2">
-        <v>0.1892398499999999</v>
+        <v>0.18923985</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L34" s="3">
         <v>0.41</v>
@@ -2701,15 +3355,15 @@
         <v>0.584</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1">
         <v>16</v>
@@ -2727,13 +3381,13 @@
         <v>14.0005703</v>
       </c>
       <c r="I35" s="2">
-        <v>0.1472017000000001</v>
+        <v>0.1472017</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L35" s="3">
         <v>0.424</v>
@@ -2744,13 +3398,13 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -2768,36 +3422,36 @@
         <v>23.34218025</v>
       </c>
       <c r="I36" s="2">
-        <v>0.1674597500000026</v>
+        <v>0.167459750000003</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L36" s="3">
         <v>0.462</v>
       </c>
       <c r="M36" s="3">
-        <v>0.6850000000000001</v>
+        <v>0.685</v>
       </c>
       <c r="N36" s="3">
         <v>0.508</v>
       </c>
       <c r="O36" s="3">
-        <v>0.6909999999999999</v>
+        <v>0.691</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1">
         <v>16</v>
@@ -2815,36 +3469,36 @@
         <v>52.36143494</v>
       </c>
       <c r="I37" s="2">
-        <v>0.1392550599999964</v>
+        <v>0.139255059999996</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L37" s="3">
         <v>0.509</v>
       </c>
       <c r="M37" s="3">
-        <v>0.6919999999999999</v>
+        <v>0.692</v>
       </c>
       <c r="N37" s="3">
         <v>0.508</v>
       </c>
       <c r="O37" s="3">
-        <v>0.6909999999999999</v>
+        <v>0.691</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -2862,13 +3516,13 @@
         <v>4.730150223</v>
       </c>
       <c r="I38" s="2">
-        <v>0.1378797770000002</v>
+        <v>0.137879777</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L38" s="3">
         <v>0.174</v>
@@ -2885,13 +3539,13 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1">
         <v>16</v>
@@ -2909,13 +3563,13 @@
         <v>11.41250992</v>
       </c>
       <c r="I39" s="2">
-        <v>0.1395300800000001</v>
+        <v>0.13953008</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L39" s="3">
         <v>0.178</v>
@@ -2932,13 +3586,13 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
@@ -2956,13 +3610,13 @@
         <v>36.4341774</v>
       </c>
       <c r="I40" s="2">
-        <v>0.1786625999999956</v>
+        <v>0.178662599999996</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L40" s="3">
         <v>0.49</v>
@@ -2979,13 +3633,13 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D41" s="1">
         <v>16</v>
@@ -3000,16 +3654,16 @@
         <v>79.976781</v>
       </c>
       <c r="H41" s="2">
-        <v>79.83993529999999</v>
+        <v>79.8399353</v>
       </c>
       <c r="I41" s="2">
-        <v>0.1368457000000092</v>
+        <v>0.136845700000009</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L41" s="3">
         <v>0.528</v>
@@ -3026,13 +3680,13 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1">
         <v>8</v>
@@ -3050,13 +3704,13 @@
         <v>132.6499939</v>
       </c>
       <c r="I42" s="2">
-        <v>0.1568081000000063</v>
+        <v>0.156808100000006</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L42" s="3">
         <v>0.513</v>
@@ -3073,13 +3727,13 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1">
         <v>16</v>
@@ -3097,16 +3751,16 @@
         <v>305.4667053</v>
       </c>
       <c r="I43" s="2">
-        <v>0.1887687000000255</v>
+        <v>0.188768700000025</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L43" s="3">
-        <v>0.5590000000000001</v>
+        <v>0.559</v>
       </c>
       <c r="M43" s="3">
         <v>0.734</v>
@@ -3120,13 +3774,13 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1">
         <v>8</v>
@@ -3144,13 +3798,13 @@
         <v>113.2847366</v>
       </c>
       <c r="I44" s="2">
-        <v>0.1431443999999971</v>
+        <v>0.143144399999997</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L44" s="3">
         <v>0.501</v>
@@ -3167,13 +3821,13 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1">
         <v>16</v>
@@ -3191,13 +3845,13 @@
         <v>241.0606232</v>
       </c>
       <c r="I45" s="2">
-        <v>0.1647097999999971</v>
+        <v>0.164709799999997</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L45" s="3">
         <v>0.551</v>
@@ -3214,13 +3868,13 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1">
         <v>8</v>
@@ -3238,13 +3892,13 @@
         <v>175.2640839</v>
       </c>
       <c r="I46" s="2">
-        <v>0.1421490999999833</v>
+        <v>0.142149099999983</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L46" s="3">
         <v>0.519</v>
@@ -3253,7 +3907,7 @@
         <v>0.733</v>
       </c>
       <c r="N46" s="3">
-        <v>0.5590000000000001</v>
+        <v>0.559</v>
       </c>
       <c r="O46" s="3">
         <v>0.733</v>
@@ -3261,13 +3915,13 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D47" s="1">
         <v>16</v>
@@ -3285,22 +3939,22 @@
         <v>385.0592651</v>
       </c>
       <c r="I47" s="2">
-        <v>0.1387088999999833</v>
+        <v>0.138708899999983</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L47" s="3">
-        <v>0.5629999999999999</v>
+        <v>0.563</v>
       </c>
       <c r="M47" s="3">
         <v>0.739</v>
       </c>
       <c r="N47" s="3">
-        <v>0.5590000000000001</v>
+        <v>0.559</v>
       </c>
       <c r="O47" s="3">
         <v>0.733</v>
@@ -3308,13 +3962,13 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D48" s="1">
         <v>8</v>
@@ -3326,19 +3980,19 @@
         <v>0</v>
       </c>
       <c r="G48" s="2">
-        <v>66.56785000000001</v>
+        <v>66.56785</v>
       </c>
       <c r="H48" s="2">
         <v>66.4250412</v>
       </c>
       <c r="I48" s="2">
-        <v>0.1428088000000116</v>
+        <v>0.142808800000012</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L48" s="3">
         <v>0.493</v>
@@ -3355,13 +4009,13 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1">
         <v>16</v>
@@ -3379,13 +4033,13 @@
         <v>149.2167664</v>
       </c>
       <c r="I49" s="2">
-        <v>0.1558555999999953</v>
+        <v>0.155855599999995</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L49" s="3">
         <v>0.539</v>
@@ -3402,13 +4056,13 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D50" s="1">
         <v>8</v>
@@ -3426,19 +4080,19 @@
         <v>26.25404358</v>
       </c>
       <c r="I50" s="2">
-        <v>0.1447714199999979</v>
+        <v>0.144771419999998</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L50" s="3">
         <v>0.52</v>
       </c>
       <c r="M50" s="3">
-        <v>0.6919999999999999</v>
+        <v>0.692</v>
       </c>
       <c r="N50" s="3">
         <v>0.527</v>
@@ -3449,13 +4103,13 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1">
         <v>16</v>
@@ -3473,13 +4127,13 @@
         <v>63.31785965</v>
       </c>
       <c r="I51" s="2">
-        <v>0.1467353500000002</v>
+        <v>0.14673535</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L51" s="3">
         <v>0.525</v>
@@ -3496,13 +4150,13 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1">
         <v>8</v>
@@ -3520,13 +4174,13 @@
         <v>17.16968918</v>
       </c>
       <c r="I52" s="2">
-        <v>0.1449448200000027</v>
+        <v>0.144944820000003</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L52" s="3">
         <v>0.497</v>
@@ -3543,13 +4197,13 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1">
         <v>16</v>
@@ -3567,13 +4221,13 @@
         <v>39.10509491</v>
       </c>
       <c r="I53" s="2">
-        <v>0.1460240900000045</v>
+        <v>0.146024090000004</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L53" s="3">
         <v>0.499</v>
@@ -3590,13 +4244,13 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1">
         <v>8</v>
@@ -3617,10 +4271,10 @@
         <v>0.143870116</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L54" s="3">
         <v>0.363</v>
@@ -3637,13 +4291,13 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D55" s="1">
         <v>16</v>
@@ -3658,16 +4312,16 @@
         <v>8.183773</v>
       </c>
       <c r="H55" s="2">
-        <v>8.038254737999999</v>
+        <v>8.038254738</v>
       </c>
       <c r="I55" s="2">
-        <v>0.1455182620000013</v>
+        <v>0.145518262000001</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L55" s="3">
         <v>0.368</v>
@@ -3684,13 +4338,13 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1">
         <v>8</v>
@@ -3708,13 +4362,13 @@
         <v>7.719675064</v>
       </c>
       <c r="I56" s="2">
-        <v>0.1472349360000003</v>
+        <v>0.147234936</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L56" s="3">
         <v>0.438</v>
@@ -3731,13 +4385,13 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1">
         <v>16</v>
@@ -3755,13 +4409,13 @@
         <v>17.58197594</v>
       </c>
       <c r="I57" s="2">
-        <v>0.1461310600000019</v>
+        <v>0.146131060000002</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L57" s="3">
         <v>0.444</v>
@@ -3778,13 +4432,13 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D58" s="1">
         <v>8</v>
@@ -3802,13 +4456,13 @@
         <v>39.99035263</v>
       </c>
       <c r="I58" s="2">
-        <v>0.1802353700000054</v>
+        <v>0.180235370000005</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L58" s="3">
         <v>0.533</v>
@@ -3825,13 +4479,13 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1">
         <v>16</v>
@@ -3849,13 +4503,13 @@
         <v>101.0734787</v>
       </c>
       <c r="I59" s="2">
-        <v>0.1461023000000097</v>
+        <v>0.14610230000001</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L59" s="3">
         <v>0.535</v>
@@ -3872,13 +4526,13 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1">
         <v>8</v>
@@ -3896,13 +4550,13 @@
         <v>25.62084961</v>
       </c>
       <c r="I60" s="2">
-        <v>0.1477713899999991</v>
+        <v>0.147771389999999</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L60" s="3">
         <v>0.512</v>
@@ -3919,13 +4573,13 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D61" s="1">
         <v>16</v>
@@ -3943,13 +4597,13 @@
         <v>57.97106171</v>
       </c>
       <c r="I61" s="2">
-        <v>0.1460282899999967</v>
+        <v>0.146028289999997</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L61" s="3">
         <v>0.516</v>
@@ -3966,13 +4620,13 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D62" s="1">
         <v>8</v>
@@ -3990,13 +4644,13 @@
         <v>19.4677906</v>
       </c>
       <c r="I62" s="2">
-        <v>0.1489633999999995</v>
+        <v>0.148963399999999</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L62" s="3">
         <v>0.495</v>
@@ -4013,13 +4667,13 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D63" s="1">
         <v>16</v>
@@ -4037,13 +4691,13 @@
         <v>46.4882431</v>
       </c>
       <c r="I63" s="2">
-        <v>0.1451649000000046</v>
+        <v>0.145164900000005</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L63" s="3">
         <v>0.498</v>
@@ -4060,13 +4714,13 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D64" s="1">
         <v>8</v>
@@ -4084,13 +4738,13 @@
         <v>10.1557703</v>
       </c>
       <c r="I64" s="2">
-        <v>0.1436057000000002</v>
+        <v>0.1436057</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L64" s="3">
         <v>0.403</v>
@@ -4107,13 +4761,13 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D65" s="1">
         <v>16</v>
@@ -4131,13 +4785,13 @@
         <v>21.15751076</v>
       </c>
       <c r="I65" s="2">
-        <v>0.1455002400000005</v>
+        <v>0.145500240000001</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L65" s="3">
         <v>0.453</v>
@@ -4154,13 +4808,13 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D66" s="1">
         <v>8</v>
@@ -4178,13 +4832,13 @@
         <v>6.104585171</v>
       </c>
       <c r="I66" s="2">
-        <v>0.1460368289999998</v>
+        <v>0.146036829</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L66" s="3">
         <v>0.34</v>
@@ -4201,13 +4855,13 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1">
         <v>16</v>
@@ -4225,13 +4879,13 @@
         <v>10.12005043</v>
       </c>
       <c r="I67" s="2">
-        <v>0.1443755700000011</v>
+        <v>0.144375570000001</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L67" s="3">
         <v>0.365</v>
@@ -4248,13 +4902,13 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D68" s="1">
         <v>8</v>
@@ -4272,13 +4926,13 @@
         <v>25.29646492</v>
       </c>
       <c r="I68" s="2">
-        <v>0.1521780800000023</v>
+        <v>0.152178080000002</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L68" s="3">
         <v>0.457</v>
@@ -4295,13 +4949,13 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D69" s="1">
         <v>16</v>
@@ -4319,19 +4973,19 @@
         <v>63.6288414</v>
       </c>
       <c r="I69" s="2">
-        <v>0.1564546000000036</v>
+        <v>0.156454600000004</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L69" s="3">
         <v>0.475</v>
       </c>
       <c r="M69" s="3">
-        <v>0.6830000000000001</v>
+        <v>0.683</v>
       </c>
       <c r="N69" s="3">
         <v>0.457</v>
@@ -4342,13 +4996,13 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D70" s="1">
         <v>8</v>
@@ -4366,13 +5020,13 @@
         <v>16.00053024</v>
       </c>
       <c r="I70" s="2">
-        <v>0.1755197600000002</v>
+        <v>0.17551976</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L70" s="3">
         <v>0.442</v>
@@ -4389,13 +5043,13 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D71" s="1">
         <v>16</v>
@@ -4413,13 +5067,13 @@
         <v>38.01372528</v>
       </c>
       <c r="I71" s="2">
-        <v>0.1548767199999972</v>
+        <v>0.154876719999997</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L71" s="3">
         <v>0.459</v>
@@ -4436,13 +5090,13 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1">
         <v>8</v>
@@ -4463,10 +5117,10 @@
         <v>0.167742176</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L72" s="3">
         <v>0.385</v>
@@ -4483,13 +5137,13 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1">
         <v>16</v>
@@ -4507,13 +5161,13 @@
         <v>16.79273605</v>
       </c>
       <c r="I73" s="2">
-        <v>0.1501149500000025</v>
+        <v>0.150114950000002</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L73" s="3">
         <v>0.402</v>
@@ -4530,13 +5184,13 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1">
         <v>8</v>
@@ -4557,10 +5211,10 @@
         <v>0.14512489</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L74" s="3">
         <v>0.307</v>
@@ -4577,13 +5231,13 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75" s="1">
         <v>16</v>
@@ -4601,13 +5255,13 @@
         <v>4.891835213</v>
       </c>
       <c r="I75" s="2">
-        <v>0.1436307870000002</v>
+        <v>0.143630787</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L75" s="3">
         <v>0.323</v>
@@ -4624,13 +5278,13 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D76" s="1">
         <v>8</v>
@@ -4648,19 +5302,19 @@
         <v>45.34324265</v>
       </c>
       <c r="I76" s="2">
-        <v>0.1514093500000016</v>
+        <v>0.151409350000002</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L76" s="3">
         <v>0.497</v>
       </c>
       <c r="M76" s="3">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="N76" s="3">
         <v>0.474</v>
@@ -4671,13 +5325,13 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D77" s="1">
         <v>16</v>
@@ -4695,13 +5349,13 @@
         <v>115.4338913</v>
       </c>
       <c r="I77" s="2">
-        <v>0.1516637000000003</v>
+        <v>0.1516637</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L77" s="3">
         <v>0.507</v>
@@ -4719,39 +5373,560 @@
   </sheetData>
   <conditionalFormatting sqref="G2:I77">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I2 &gt;= 5</formula>
+      <formula>$I2&gt;=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(($I2 &gt;= 1), ($I2 &lt; 5))</formula>
+      <formula>AND(($I2&gt;=1),($I2&lt;5))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.1388888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1388888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5740740740741" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.712962962963" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.712962962963" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.712962962963" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.712962962963" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.11111111111111"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>24.265</v>
+      </c>
+      <c r="H2" s="2">
+        <v>24.11534309</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.149656910000001</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.461</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.799</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.667</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>55.586113</v>
+      </c>
+      <c r="H3" s="2">
+        <v>55.4426384</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.143474599999998</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.613</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.839</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.667</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.18672</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8.035024643</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.151695357</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.549</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.835</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.581</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18.80188</v>
+      </c>
+      <c r="H5" s="2">
+        <v>18.64969063</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.152189370000002</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.565</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.836</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.581</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>23.577175</v>
+      </c>
+      <c r="H6" s="2">
+        <v>23.4444046</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.132770400000002</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3.30437653791164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>51.480456</v>
+      </c>
+      <c r="H7" s="2">
+        <v>51.34725952</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.133196479999995</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="3">
+        <v>25.3172110885552</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:I5">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$I2&gt;=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(($I2&gt;=1),($I2&lt;5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$I6&gt;=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(($I6&gt;=1),($I6&lt;5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="6.71296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.287037037037" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.71296296296296" style="1" customWidth="1"/>
+    <col min="12" max="13" width="15.712962962963" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>23.577175</v>
+      </c>
+      <c r="H2" s="2">
+        <v>23.4444046</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.132770400000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3.30437653791164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>51.480456</v>
+      </c>
+      <c r="H3" s="2">
+        <v>51.34725952</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.133196479999995</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="3">
+        <v>25.3172110885552</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:I3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$I2&gt;=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(($I2&gt;=1),($I2&lt;5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="2" width="9.28703703703704" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.71296296296296" style="1" customWidth="1"/>
+    <col min="12" max="15" width="8.71296296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4789,27 +5964,27 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
@@ -4821,42 +5996,42 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>24.265</v>
+        <v>13.64417</v>
       </c>
       <c r="H2" s="2">
-        <v>24.11534309</v>
+        <v>13.54976463</v>
       </c>
       <c r="I2" s="2">
-        <v>0.1496569100000009</v>
+        <v>0.0944053700000005</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L2" s="3">
-        <v>0.461</v>
+        <v>0.671</v>
       </c>
       <c r="M2" s="3">
-        <v>0.799</v>
+        <v>0.612</v>
       </c>
       <c r="N2" s="3">
-        <v>0.667</v>
+        <v>0.685</v>
       </c>
       <c r="O2" s="3">
-        <v>0.874</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -4868,486 +6043,69 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>55.586113</v>
+        <v>30.45213</v>
       </c>
       <c r="H3" s="2">
-        <v>55.4426384</v>
+        <v>30.35857582</v>
       </c>
       <c r="I3" s="2">
-        <v>0.1434745999999976</v>
+        <v>0.0935541800000017</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L3" s="3">
-        <v>0.613</v>
+        <v>0.671</v>
       </c>
       <c r="M3" s="3">
-        <v>0.839</v>
+        <v>0.609</v>
       </c>
       <c r="N3" s="3">
-        <v>0.667</v>
+        <v>0.685</v>
       </c>
       <c r="O3" s="3">
-        <v>0.874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8.186719999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>8.035024643</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.1516953569999995</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.549</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.835</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.581</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="1">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>18.80188</v>
-      </c>
-      <c r="H5" s="2">
-        <v>18.64969063</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.1521893700000021</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.836</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.581</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.842</v>
+        <v>0.628</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:I5">
+  <conditionalFormatting sqref="G2:I3">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I2 &gt;= 5</formula>
+      <formula>$I2&gt;=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(($I2 &gt;= 1), ($I2 &lt; 5))</formula>
+      <formula>AND(($I2&gt;=1),($I2&lt;5))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>23.577175</v>
-      </c>
-      <c r="H2" s="2">
-        <v>23.4444046</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.1327704000000018</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3.30437653791164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="1">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>51.480456</v>
-      </c>
-      <c r="H3" s="2">
-        <v>51.34725952</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.1331964799999952</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="3">
-        <v>25.3172110885552</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:I3">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I2 &gt;= 5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(($I2 &gt;= 1), ($I2 &lt; 5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>13.64417</v>
-      </c>
-      <c r="H2" s="2">
-        <v>13.54976463</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.09440537000000049</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.671</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.612</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0.628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>30.45213</v>
-      </c>
-      <c r="H3" s="2">
-        <v>30.35857582</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.09355418000000171</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.671</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.609</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.628</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:I3">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I2 &gt;= 5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(($I2 &gt;= 1), ($I2 &lt; 5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="11.1388888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5740740740741" style="1" customWidth="1"/>
+    <col min="12" max="17" width="8.71296296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5403,7 +6161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -5411,7 +6169,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
@@ -5429,13 +6187,13 @@
         <v>31.82308388</v>
       </c>
       <c r="I2" s="2">
-        <v>0.1558671199999999</v>
+        <v>0.15586712</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>109</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3">
         <v>0.3672</v>
@@ -5447,7 +6205,7 @@
         <v>0.4499</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -5455,7 +6213,7 @@
         <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -5473,13 +6231,13 @@
         <v>74.86340332</v>
       </c>
       <c r="I3" s="2">
-        <v>0.1697866800000014</v>
+        <v>0.169786680000001</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>109</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3">
         <v>0.3715</v>
@@ -5494,43 +6252,47 @@
   </sheetData>
   <conditionalFormatting sqref="G2:I3">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I2 &gt;= 5</formula>
+      <formula>$I2&gt;=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(($I2 &gt;= 1), ($I2 &lt; 5))</formula>
+      <formula>AND(($I2&gt;=1),($I2&lt;5))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8518518518519" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.712962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5740740740741" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.712962962963" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.712962962963" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.712962962963" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.712962962963" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.712962962963" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14.712962962963" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.712962962963" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.712962962963" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -5597,10 +6359,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
@@ -5621,10 +6383,10 @@
         <v>0.140734975</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3">
         <v>0.275</v>
@@ -5648,7 +6410,7 @@
         <v>0.377</v>
       </c>
       <c r="S2" s="3">
-        <v>0.5659999999999999</v>
+        <v>0.566</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5656,10 +6418,10 @@
         <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -5677,13 +6439,13 @@
         <v>17.67695999</v>
       </c>
       <c r="I3" s="2">
-        <v>0.1404210100000007</v>
+        <v>0.140421010000001</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3">
         <v>0.282</v>
@@ -5695,7 +6457,7 @@
         <v>0.367</v>
       </c>
       <c r="O3" s="3">
-        <v>0.5590000000000001</v>
+        <v>0.559</v>
       </c>
       <c r="P3" s="3">
         <v>0.288</v>
@@ -5707,18 +6469,18 @@
         <v>0.377</v>
       </c>
       <c r="S3" s="3">
-        <v>0.5659999999999999</v>
+        <v>0.566</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
@@ -5730,19 +6492,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>9.782360000000001</v>
+        <v>9.78236</v>
       </c>
       <c r="H4" s="2">
         <v>9.628580093</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1537799070000005</v>
+        <v>0.153779907</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L4" s="3">
         <v>0.327</v>
@@ -5771,13 +6533,13 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>16</v>
@@ -5795,13 +6557,13 @@
         <v>22.26917076</v>
       </c>
       <c r="I5" s="2">
-        <v>0.1528392399999987</v>
+        <v>0.152839239999999</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3">
         <v>0.331</v>
@@ -5831,43 +6593,47 @@
   </sheetData>
   <conditionalFormatting sqref="G2:I5">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I2 &gt;= 5</formula>
+      <formula>$I2&gt;=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(($I2 &gt;= 1), ($I2 &lt; 5))</formula>
+      <formula>AND(($I2&gt;=1),($I2&lt;5))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.712962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5740740740741" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.71296296296296" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.712962962963" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.71296296296296" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.71296296296296" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.71296296296296" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.712962962963" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.71296296296296" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.71296296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -5929,7 +6695,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -5937,7 +6703,7 @@
         <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
@@ -5949,25 +6715,25 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>75.23314999999999</v>
+        <v>75.23315</v>
       </c>
       <c r="H2" s="2">
-        <v>75.06958770999999</v>
+        <v>75.06958771</v>
       </c>
       <c r="I2" s="2">
-        <v>0.1635622900000016</v>
+        <v>0.163562290000002</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L2" s="3">
         <v>0.9624</v>
       </c>
       <c r="M2" s="3">
-        <v>0.8614000000000001</v>
+        <v>0.8614</v>
       </c>
       <c r="N2" s="3">
         <v>0.7927</v>
@@ -5982,7 +6748,7 @@
         <v>0.7953</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -5990,7 +6756,7 @@
         <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -6008,13 +6774,13 @@
         <v>161.9704895</v>
       </c>
       <c r="I3" s="2">
-        <v>0.1574024999999892</v>
+        <v>0.157402499999989</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L3" s="3">
         <v>0.9626</v>
@@ -6035,15 +6801,15 @@
         <v>0.7953</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
@@ -6055,19 +6821,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>539.3009970000001</v>
+        <v>539.300997</v>
       </c>
       <c r="H4" s="2">
         <v>539.1730957</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1279013000000759</v>
+        <v>0.127901300000076</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L4" s="3">
         <v>0.9579</v>
@@ -6088,15 +6854,15 @@
         <v>0.7792</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D5" s="1">
         <v>16</v>
@@ -6114,13 +6880,13 @@
         <v>1399.334961</v>
       </c>
       <c r="I5" s="2">
-        <v>0.1488759999999729</v>
+        <v>0.148875999999973</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L5" s="3">
         <v>0.9588</v>
@@ -6143,13 +6909,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -6167,10 +6933,10 @@
         <v>51.21030045</v>
       </c>
       <c r="I6" s="2">
-        <v>0.1334805500000016</v>
+        <v>0.133480550000002</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>134</v>
@@ -6182,7 +6948,7 @@
         <v>0.840471759247157</v>
       </c>
       <c r="N6" s="3">
-        <v>0.7652880038864039</v>
+        <v>0.765288003886404</v>
       </c>
       <c r="O6" s="3">
         <v>0.890936712522708</v>
@@ -6202,13 +6968,13 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1">
         <v>16</v>
@@ -6226,16 +6992,16 @@
         <v>209.6499481</v>
       </c>
       <c r="I7" s="2">
-        <v>0.1297039000000098</v>
+        <v>0.12970390000001</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>134</v>
       </c>
       <c r="L7" s="3">
-        <v>0.9405796918950809</v>
+        <v>0.940579691895081</v>
       </c>
       <c r="M7" s="3">
         <v>0.854636617560363</v>
@@ -6244,7 +7010,7 @@
         <v>0.769299535729171</v>
       </c>
       <c r="O7" s="3">
-        <v>0.8923648411698319</v>
+        <v>0.892364841169832</v>
       </c>
       <c r="P7" s="3">
         <v>0.944858257679751</v>
@@ -6262,40 +7028,44 @@
   </sheetData>
   <conditionalFormatting sqref="G2:I7">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I2 &gt;= 5</formula>
+      <formula>$I2&gt;=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(($I2 &gt;= 1), ($I2 &lt; 5))</formula>
+      <formula>AND(($I2&gt;=1),($I2&lt;5))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="10.5740740740741" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28703703703704" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.71296296296296" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.71296296296296" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.712962962963" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.71296296296296" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.71296296296296" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14.712962962963" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6377,10 +7147,10 @@
         <v>37.54838562</v>
       </c>
       <c r="I2" s="2">
-        <v>0.1225653800000046</v>
+        <v>0.122565380000005</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>143</v>
@@ -6430,10 +7200,10 @@
         <v>72.48387909</v>
       </c>
       <c r="I3" s="2">
-        <v>0.1228519099999943</v>
+        <v>0.122851909999994</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>143</v>
@@ -6460,12 +7230,13 @@
   </sheetData>
   <conditionalFormatting sqref="G2:I3">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I2 &gt;= 5</formula>
+      <formula>$I2&gt;=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(($I2 &gt;= 1), ($I2 &lt; 5))</formula>
+      <formula>AND(($I2&gt;=1),($I2&lt;5))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>